--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -29333,7 +29333,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29429,7 +29429,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29463,7 +29463,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29495,7 +29495,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29591,7 +29591,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29623,7 +29623,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29655,7 +29655,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -29687,7 +29687,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/chauffage-electrique-mural-multifonctionnel-2000w-pour-la-maison-etanche-rapide-chaud-pour-lhiver/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40417,7 +40417,7 @@
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40449,7 +40449,7 @@
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40481,7 +40481,7 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40513,7 +40513,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-dete-rectangulaire-pour-enfants-a-trois-couches/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40545,7 +40545,7 @@
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-dete-rectangulaire-pour-enfants-a-trois-couches/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40577,7 +40577,7 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-dete-rectangulaire-pour-enfants-a-trois-couches/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40609,7 +40609,7 @@
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-adultes-et-enfants/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40705,7 +40705,7 @@
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-dete-rectangulaire-pour-enfants-a-trois-couches/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40737,7 +40737,7 @@
       </c>
       <c r="F1263" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-adultes-et-enfants/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40769,7 +40769,7 @@
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-adultes-et-enfants/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40801,7 +40801,7 @@
       </c>
       <c r="F1265" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-adultes-et-enfants/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40833,7 +40833,7 @@
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-adultes-et-enfants/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40929,7 +40929,7 @@
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40961,7 +40961,7 @@
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -40993,7 +40993,7 @@
       </c>
       <c r="F1271" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41025,7 +41025,7 @@
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41057,7 +41057,7 @@
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41089,7 +41089,7 @@
       </c>
       <c r="F1274" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41124,7 +41124,7 @@
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41764,7 +41764,7 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41924,7 +41924,7 @@
       </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41956,7 +41956,7 @@
       </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -41988,7 +41988,7 @@
       </c>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42020,7 +42020,7 @@
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42633,7 +42633,7 @@
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42665,7 +42665,7 @@
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42697,7 +42697,7 @@
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42729,7 +42729,7 @@
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42761,7 +42761,7 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42793,7 +42793,7 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42825,7 +42825,7 @@
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42857,7 +42857,7 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -42889,7 +42889,7 @@
       </c>
       <c r="F1330" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/4-en-1-deboucheur-canalisation-a-air-comprime-pompe-haute-pression/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46588,7 +46588,7 @@
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46620,7 +46620,7 @@
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46652,7 +46652,7 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -46748,7 +46748,7 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -55720,7 +55720,7 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -55748,7 +55748,7 @@
       <c r="E1732" t="inlineStr"/>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/piscine-gonflable-pour-bebe-bassin-dexterieur-portable-multifonction/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -56048,7 +56048,7 @@
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -56664,7 +56664,7 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/machine-a-petit-dejeuner-electrique-3-en-1-machine-a-cafe/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -57208,7 +57208,7 @@
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/kemei-11-en-1-tondeuse-a-cheveux-multifonction-tondeuse/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -57265,7 +57265,7 @@
       <c r="E1783" t="inlineStr"/>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>https://expressshop.tn/produit/crepiere-electrique-antiadhesive-machine-de-brik/#judgeme_product_reviews</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -57448,7 +57448,7 @@
     <row r="1790">
       <c r="A1790" t="inlineStr">
         <is>
-          <t>ee e</t>
+          <t>Esra Matraş</t>
         </is>
       </c>
       <c r="B1790" t="inlineStr">
